--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/127.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/127.xlsx
@@ -479,13 +479,13 @@
         <v>-18.84521057672834</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.709031932114835</v>
+        <v>-9.053330128892668</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.061428256531265</v>
+        <v>-3.004869508255009</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.482996865793639</v>
+        <v>-5.669951767019609</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-18.96355935832226</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.998777686305074</v>
+        <v>-9.330088318663915</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.023944993495404</v>
+        <v>-3.048257399872489</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.450318477900692</v>
+        <v>-5.61708504814472</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-19.10573541542488</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.82199550438713</v>
+        <v>-10.15177433731349</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.840482553774296</v>
+        <v>-2.904517006973179</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.333561321158179</v>
+        <v>-5.489840956825984</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-19.18449752013072</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.55013701923256</v>
+        <v>-10.90627065777932</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.800511753198507</v>
+        <v>-2.824038621405089</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.572757694076514</v>
+        <v>-5.713392027848456</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-19.14188023471419</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.39872772022188</v>
+        <v>-11.70652457667698</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.609377224012148</v>
+        <v>-2.672848708188836</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.089193488617362</v>
+        <v>-5.258526150218367</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-18.90833788723702</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.08606052710966</v>
+        <v>-12.38567469428868</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.550317845893121</v>
+        <v>-2.636609213922938</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.181703700496998</v>
+        <v>-5.372939784752211</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-18.45407862408316</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.64766794980834</v>
+        <v>-12.90547839401373</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.451143651867047</v>
+        <v>-2.514510397621001</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.676694302983098</v>
+        <v>-4.908464156836295</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-17.77737030496773</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.65314371575006</v>
+        <v>-13.88652392285279</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.260598276308565</v>
+        <v>-2.274986717131622</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.483779220610264</v>
+        <v>-4.78357668002907</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-16.9009770290583</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.40198416138827</v>
+        <v>-14.63620227587286</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.232842594284106</v>
+        <v>-2.258241661797055</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.111709066151251</v>
+        <v>-4.398833176419267</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-15.88825573894313</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.10049779490287</v>
+        <v>-15.3174340696364</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.025735455630842</v>
+        <v>-2.080801681383141</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.878404229511693</v>
+        <v>-4.18079396489316</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-14.82436796733253</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.75050444638889</v>
+        <v>-15.97041267386749</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.131036847386844</v>
+        <v>-2.106109102776198</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.351857993823153</v>
+        <v>-3.658070681634406</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-13.78923617635976</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.72924572992781</v>
+        <v>-16.94703300434604</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.920224587029371</v>
+        <v>-1.919465233464551</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.685355040756563</v>
+        <v>-3.026314700309756</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-12.87004556760777</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.32091307995109</v>
+        <v>-17.56091799229173</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.66103626767172</v>
+        <v>-1.653482008932044</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.407549466757978</v>
+        <v>-2.687787025731245</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-12.1332822829053</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.24614612177587</v>
+        <v>-18.45876193657163</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.521616334710179</v>
+        <v>-1.503758433634065</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.813865902097067</v>
+        <v>-2.106449502650082</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-11.60123920222584</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.1655269042304</v>
+        <v>-19.36021935643583</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.352660166537704</v>
+        <v>-1.344254908113316</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.392869811918524</v>
+        <v>-1.714295755631862</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-11.26978792933252</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.962560116629</v>
+        <v>-20.15391403160979</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.170952095397388</v>
+        <v>-1.121070421570412</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.89837353358653</v>
+        <v>-1.199899176980445</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-11.10375705828013</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.92403265271968</v>
+        <v>-21.122705164989</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.070534132601349</v>
+        <v>-1.033194884896746</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.528227947645251</v>
+        <v>-0.8417330481393445</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-11.0401512242686</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.7684207244968</v>
+        <v>-21.96273349991982</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9714777693008498</v>
+        <v>-0.8966028893490184</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.176463954893755</v>
+        <v>-0.4639546496413388</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-11.02127928383654</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.45598919283573</v>
+        <v>-22.61054064452843</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.7542240959452474</v>
+        <v>-0.6497344269654317</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.8409344176659992</v>
+        <v>-0.114377071464411</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.99950560191701</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.06874824273704</v>
+        <v>-23.23258213714452</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4803723974048633</v>
+        <v>-0.3576451505665231</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.479953443713928</v>
+        <v>0.2235090802748554</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-10.93740503162678</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.73907414823341</v>
+        <v>-23.87561059121589</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.3235135170581432</v>
+        <v>-0.1396321236461006</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.3028014939625326</v>
+        <v>0.2735609540387741</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-10.82140272944207</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.16321239109397</v>
+        <v>-24.34668473976404</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.2575544953415273</v>
+        <v>-0.04833949593074472</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1035890139228287</v>
+        <v>0.517365817557397</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.65463671150665</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.60137249029802</v>
+        <v>-24.7402000862778</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.2887403607105188</v>
+        <v>-0.07555839353869322</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.07715565448538381</v>
+        <v>0.4826450304211394</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.44560464542034</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.85601778056959</v>
+        <v>-25.01050377074808</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01493560370331736</v>
+        <v>0.2266250483511862</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.06991561101390928</v>
+        <v>0.4701942504186579</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.21422184520587</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.86406954681725</v>
+        <v>-25.00902434052696</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.01575275415768854</v>
+        <v>0.222186757687841</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.2346167807628232</v>
+        <v>0.310939478651902</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-9.986918725500535</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.87629775767142</v>
+        <v>-24.98300993478045</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.2110375433448746</v>
+        <v>0.02962516749173401</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2091653440385078</v>
+        <v>0.3101539404813985</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-9.787371596805315</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.9278421539593</v>
+        <v>-25.07262674773207</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.01638118469409139</v>
+        <v>0.1766648207071595</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.5069759567792507</v>
+        <v>0.01274918912874911</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.632943430658731</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.01834924350415</v>
+        <v>-25.12574222036095</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.07241624085667896</v>
+        <v>0.1340493749573411</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.5729873477072335</v>
+        <v>-0.07800665417009599</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.534851171485826</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.76395270698657</v>
+        <v>-24.8994679503474</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.1733840803720704</v>
+        <v>0.007342068055116245</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.7200531855283424</v>
+        <v>-0.2612727093485775</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.495683274282522</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.33583440406213</v>
+        <v>-24.44695868722882</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.1827450769039045</v>
+        <v>0.007499175689216957</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.23808942436976</v>
+        <v>-0.7507153587836648</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.509593254937764</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.40273607158335</v>
+        <v>-24.49851617581954</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1042829059734402</v>
+        <v>0.06984472182151649</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.393193936135688</v>
+        <v>-0.8648540549578327</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.567342738755444</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.985693856863</v>
+        <v>-24.10263112249142</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.153614703081064</v>
+        <v>0.007171868118173805</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.892285612765128</v>
+        <v>-1.351861536064359</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.65469601735078</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.35625521314134</v>
+        <v>-23.50473183631548</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.2085892827134718</v>
+        <v>-0.1104624729147349</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.92924518368732</v>
+        <v>-1.423463340305759</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.752149231891696</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.00196440594139</v>
+        <v>-23.16164804034805</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.408456377895262</v>
+        <v>-0.3078682151622806</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.061006119486451</v>
+        <v>-1.495903051929029</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.843263790540648</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.2147242360684</v>
+        <v>-22.41723279307034</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.508154264035006</v>
+        <v>-0.4192968046482111</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.233981624631336</v>
+        <v>-1.691593702504309</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.915412892974382</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.42270537565819</v>
+        <v>-21.61755493549772</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.4556672219425262</v>
+        <v>-0.3578153505034655</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.39306619646115</v>
+        <v>-1.820998023791929</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.95597949545148</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.04394505444705</v>
+        <v>-21.23231392437993</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.514320738673459</v>
+        <v>-0.4222425727875995</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.664417265158764</v>
+        <v>-2.080029235515479</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.960857930187219</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.38999761980568</v>
+        <v>-20.58254293434506</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.4464895176504762</v>
+        <v>-0.2981668187565615</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.847054889800843</v>
+        <v>-2.236979761982091</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.93725629213824</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.00191557897123</v>
+        <v>-20.23682758550644</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6436857830525542</v>
+        <v>-0.5553651080822701</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.04257534043918</v>
+        <v>-2.457860003224852</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.893502468936305</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.38422073089859</v>
+        <v>-19.67059857990463</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4285923396658367</v>
+        <v>-0.2903376216572094</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.948009637013393</v>
+        <v>-2.319762392850325</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.842941587225807</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.87618701142826</v>
+        <v>-19.12842013462307</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.1837924611312426</v>
+        <v>-0.04865371119894615</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.040768602647022</v>
+        <v>-2.347308598029317</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.806472789972032</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.96095648897455</v>
+        <v>-18.22883491406523</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.1646646066794809</v>
+        <v>-0.04785508072560086</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.013130751348138</v>
+        <v>-2.269684334480723</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.795790925401194</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.63036274991813</v>
+        <v>-17.90449929576715</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.1154113633889074</v>
+        <v>-0.002935389675638719</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.23956212899579</v>
+        <v>-2.462691062973449</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.820796532491778</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.06863749649387</v>
+        <v>-17.37263758512487</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.1417399844036185</v>
+        <v>-0.03001027195232823</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.304997458598737</v>
+        <v>-2.50669429282449</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.893967761530089</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.60840377469868</v>
+        <v>-16.95893390762917</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.06932645738603162</v>
+        <v>0.0116363433872024</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.133383552949392</v>
+        <v>-2.413162881323199</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.01535533990313</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.92494628945205</v>
+        <v>-16.29792972175611</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.1171657319696987</v>
+        <v>0.01180654332414483</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.506186876367542</v>
+        <v>-2.743887543408042</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.18269257263312</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.26584048749103</v>
+        <v>-15.63655895140347</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.07714256218254208</v>
+        <v>0.007682467929001123</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.375054371104814</v>
+        <v>-2.662309404401246</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.39816502092575</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.63680770515746</v>
+        <v>-15.07450639040817</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01678161840400074</v>
+        <v>0.1315880220230966</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.660937895956744</v>
+        <v>-2.882692138136021</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.65391183256559</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.9238139846999</v>
+        <v>-14.37491918806054</v>
       </c>
       <c r="F50" t="n">
-        <v>0.09889654182730664</v>
+        <v>0.2588321133418323</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.618715219292177</v>
+        <v>-2.831134649545304</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.94339026885856</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.10681501046767</v>
+        <v>-13.56903557894093</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1276079619592119</v>
+        <v>0.2671457256463283</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.779266129040264</v>
+        <v>-2.928161705905336</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-11.2680861471202</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.52209967325334</v>
+        <v>-12.9753127373715</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1951511523196767</v>
+        <v>0.3418111287526921</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.703239126438361</v>
+        <v>-2.91908874003602</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-11.62148856750598</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.85759984252154</v>
+        <v>-12.33740337371123</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2640690344785227</v>
+        <v>0.3984091539374739</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.754482399760877</v>
+        <v>-2.950824482124364</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.99923098881174</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.47453215367547</v>
+        <v>-11.95906200619103</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1337351596891397</v>
+        <v>0.290960624515428</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.94329959134425</v>
+        <v>-3.084326694201444</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-12.40506121964976</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.9004084894601</v>
+        <v>-11.46042856016106</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.03299531700024178</v>
+        <v>0.06267013986425062</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.367175988147973</v>
+        <v>-3.55691954987923</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-12.83226709936542</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.4716748483021</v>
+        <v>-11.03669617868859</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.03624220810498983</v>
+        <v>0.1225936099708308</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.479835254101026</v>
+        <v>-3.641967149139083</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-13.27342218442729</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.69718658139695</v>
+        <v>-10.27300906162787</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.08431714413980795</v>
+        <v>0.06514458510133683</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.893355639356944</v>
+        <v>-4.015922595207305</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-13.72752278360903</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.43782806210236</v>
+        <v>-9.984572537721801</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.2508119593780384</v>
+        <v>-0.1127012567006701</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.908280864596511</v>
+        <v>-4.0407717860009</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-14.18360294231074</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.828931241539362</v>
+        <v>-9.412936411046358</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.1973037176639039</v>
+        <v>-0.04261815958891043</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.214758581818477</v>
+        <v>-4.327702695080169</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-14.63276241109278</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.501126162988225</v>
+        <v>-9.0567603122372</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.3022254326374966</v>
+        <v>-0.161024946489481</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.09516039535931</v>
+        <v>-4.236658821118806</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-15.07536242460627</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.939819863254904</v>
+        <v>-8.517920404180281</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.3289206381317761</v>
+        <v>-0.1858479526773936</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.467623318903574</v>
+        <v>-4.629506460187638</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-15.50430006989101</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.463443332055858</v>
+        <v>-8.027142339855338</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.281133732759476</v>
+        <v>-0.1448821370856327</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.492603432725588</v>
+        <v>-4.612106789710984</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-15.91597260630928</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.013644175625517</v>
+        <v>-7.568532063612515</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.29709324992354</v>
+        <v>-0.1666546367114232</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.475085931523358</v>
+        <v>-4.605102407690661</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-16.31399473442654</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.662809736375785</v>
+        <v>-7.210470673194148</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.44917343973303</v>
+        <v>-0.3285671459550495</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.653599480770294</v>
+        <v>-4.816359806344753</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-16.69318008968831</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.310443497693569</v>
+        <v>-6.847800792175494</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.3767075435040763</v>
+        <v>-0.2683818297916348</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.903976680315463</v>
+        <v>-5.086977706083231</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-17.04934975508727</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.057369283763004</v>
+        <v>-6.599177961211117</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4953630841586396</v>
+        <v>-0.3857150478591838</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.858127435763738</v>
+        <v>-5.064930268097764</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-17.38103130042825</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.890887560827616</v>
+        <v>-6.43589076016911</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.5921806636732039</v>
+        <v>-0.458207128693821</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.945858957106144</v>
+        <v>-5.169603229317364</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-17.67598614867319</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.610005295661225</v>
+        <v>-6.158988555066603</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.539601975460832</v>
+        <v>-0.4126459148046143</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.911072708455678</v>
+        <v>-5.155188603888623</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-17.92126500569737</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.497175829771229</v>
+        <v>-6.027960788226609</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8346108353934455</v>
+        <v>-0.6825437378867972</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.936393222151576</v>
+        <v>-5.225022947246391</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-18.10748763593926</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.30831936127933</v>
+        <v>-5.821141680235861</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7412234392234134</v>
+        <v>-0.6229213907455767</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.768327330572339</v>
+        <v>-5.072576172957332</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-18.22003879982405</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.226806683786744</v>
+        <v>-5.709660721538564</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.8110446902783386</v>
+        <v>-0.6992757009185231</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.676209887777954</v>
+        <v>-5.022288637742262</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-18.24915079493166</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.238013695019261</v>
+        <v>-5.705156969361011</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9413523804620381</v>
+        <v>-0.8118956899630507</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.489683849191882</v>
+        <v>-4.890475332731764</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-18.19354762754755</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.294533166386993</v>
+        <v>-5.752040505837232</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.9961698524603452</v>
+        <v>-0.8505703525575096</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.317114205435091</v>
+        <v>-4.701553402725657</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-18.05173092387907</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.511511901382919</v>
+        <v>-5.982818528028337</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.875498097168156</v>
+        <v>-0.7422970080564349</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.169027167992328</v>
+        <v>-4.570787481942497</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-17.82898621055896</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.68560025226935</v>
+        <v>-6.174934979927825</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.220480277047638</v>
+        <v>-1.073375162318004</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.000162645939745</v>
+        <v>-4.404384312824159</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-17.54013213862399</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.156032877978252</v>
+        <v>-6.67322802608392</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.155254424290159</v>
+        <v>-0.9953188527756329</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.772775530184647</v>
+        <v>-4.218774735437008</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-17.20029608931644</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.586010287906219</v>
+        <v>-7.131537179361382</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.222129907205695</v>
+        <v>-1.054299677077609</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.707680600455585</v>
+        <v>-4.149136776621868</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-16.82796650634241</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.187680157300582</v>
+        <v>-7.721620360740817</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.274564580086808</v>
+        <v>-1.121175159993146</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.345822442213118</v>
+        <v>-3.765728687901919</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-16.44648432443203</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.599184327918874</v>
+        <v>-8.138361452495801</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.29035389731393</v>
+        <v>-1.097962507054765</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.205250386601505</v>
+        <v>-3.593106674933761</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-16.07404366242277</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.047674254065043</v>
+        <v>-8.604539079781141</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.408197715192306</v>
+        <v>-1.279290901412671</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.850566810316304</v>
+        <v>-3.233893161865323</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-15.72405712250874</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.935345479036911</v>
+        <v>-9.521458509301425</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.389410260614429</v>
+        <v>-1.213436618118789</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.857505730822419</v>
+        <v>-3.225919949434712</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-15.40944118972549</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.68789104637933</v>
+        <v>-10.31325480056334</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.473475937161152</v>
+        <v>-1.300958662615728</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.653331268005701</v>
+        <v>-3.03749552693659</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-15.13590458291676</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.47695104634731</v>
+        <v>-11.13484917309301</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.607554210563269</v>
+        <v>-1.424798755195615</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.323653990148197</v>
+        <v>-2.68099212055639</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-14.90170936987834</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.66456692942313</v>
+        <v>-12.3324675755399</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.674390416570281</v>
+        <v>-1.496204174894389</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.177661721160109</v>
+        <v>-2.552556629679056</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-14.70640131299464</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.5436103268223</v>
+        <v>-13.22359516846199</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.739144946425458</v>
+        <v>-1.579445036362083</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.846177705510447</v>
+        <v>-2.222277105890833</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-14.54738949715232</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.66334261966376</v>
+        <v>-14.3823425237718</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.925657892708687</v>
+        <v>-1.777583947568766</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.592121568866753</v>
+        <v>-1.969648030256887</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-14.41654553519899</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.71930230536318</v>
+        <v>-15.46455227666887</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.956306973661168</v>
+        <v>-1.82305351533808</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.163060620137706</v>
+        <v>-1.550432493264818</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-14.3098102186917</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.11358018879564</v>
+        <v>-16.86495735783126</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.903322424060703</v>
+        <v>-1.805339629593225</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.888881614026279</v>
+        <v>-1.243679837683177</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-14.22644254199053</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.74104507814208</v>
+        <v>-18.52459003525982</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.124006280760837</v>
+        <v>-2.037793466548071</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.709268311340639</v>
+        <v>-1.053029723701961</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-14.16171576924655</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.31967567788888</v>
+        <v>-20.1203453671236</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.337122786418454</v>
+        <v>-2.258136923374321</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.426710231410507</v>
+        <v>-0.7671069219415059</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-14.11764247670398</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.02136083204507</v>
+        <v>-21.90635804388335</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.496744142664778</v>
+        <v>-2.454325081457586</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.565344626201544</v>
+        <v>-0.9128111602670753</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-14.10253912136614</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.67093862089119</v>
+        <v>-23.59859055538781</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.60582920994204</v>
+        <v>-2.54894315409474</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.365189500357236</v>
+        <v>-0.723129876696148</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-14.11544964423128</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.77429562623153</v>
+        <v>-25.69131661082067</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.718436106683726</v>
+        <v>-2.699399898351856</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.337355264515727</v>
+        <v>-0.7082439283651054</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-14.15472891739643</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.99008932837662</v>
+        <v>-27.93249628817587</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.567089085833373</v>
+        <v>-2.568673254477222</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.434002644093348</v>
+        <v>-0.8351345275071145</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-14.22087727647081</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.25302841305476</v>
+        <v>-30.2119054898289</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.006951184406844</v>
+        <v>-3.039904510659468</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.790113281388297</v>
+        <v>-1.190957134139546</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-14.29804817840923</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.48203224876715</v>
+        <v>-32.41523531966867</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.022531024788497</v>
+        <v>-3.098139073699465</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.048908831660697</v>
+        <v>-1.439069365293096</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-14.37394018962764</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.72168012668986</v>
+        <v>-34.63998415695749</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.301082860049061</v>
+        <v>-3.428222212945063</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.229255303305473</v>
+        <v>-1.642130982368268</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-14.43588694961877</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.22515099917619</v>
+        <v>-37.15426927159109</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.551708813348224</v>
+        <v>-3.684242195015016</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.677234629640814</v>
+        <v>-2.064593410465084</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-14.46920301401713</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.68329631922447</v>
+        <v>-39.66530749511994</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.485723607025924</v>
+        <v>-3.603541240298617</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.154697821975722</v>
+        <v>-2.531857698886288</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-14.45277756872045</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.2533153670553</v>
+        <v>-42.23218439026876</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.664053864033075</v>
+        <v>-3.784057911880336</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.447048944431465</v>
+        <v>-2.861102930750015</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-14.39450544281278</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.549875485431</v>
+        <v>-44.5163984670647</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.869733941676591</v>
+        <v>-4.008643274827305</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.968973597216875</v>
+        <v>-3.442191700077185</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-14.26381636936055</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.86820810343248</v>
+        <v>-46.83810889919936</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.998850232301694</v>
+        <v>-4.155997143310932</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.273998068823409</v>
+        <v>-3.738784728653647</v>
       </c>
     </row>
   </sheetData>
